--- a/public/excel/excel学习20190404.xlsx
+++ b/public/excel/excel学习20190404.xlsx
@@ -26,12 +26,12 @@
     <definedName name="序列">IF(Sheet1!$C$10=1,Sheet1!$B$11:$B$15,Sheet1!$B$4:$B$8)</definedName>
     <definedName name="坐标轴">IF(Sheet1!$C$10=2,Sheet1!$B$11:$B$15,Sheet1!$B$4:$B$8)</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="305">
   <si>
     <t>2017年零部件合格品记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1298,6 +1298,17 @@
   </si>
   <si>
     <t>王五</t>
+  </si>
+  <si>
+    <t>http://www.wordlm.com/Excel/jqdq/6691.html</t>
+  </si>
+  <si>
+    <t>将多个单元格内容合并到一个单元格中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONETIC函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1900,9 +1911,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1950,6 +1958,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2076,6 +2087,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2171,25 +2250,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="159356416"/>
-        <c:axId val="159357952"/>
+        <c:axId val="113867008"/>
+        <c:axId val="129236352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159356416"/>
+        <c:axId val="113867008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159357952"/>
+        <c:crossAx val="129236352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159357952"/>
+        <c:axId val="129236352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,7 +2277,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159356416"/>
+        <c:crossAx val="113867008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2232,7 +2311,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000688" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000688" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000699" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000699" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2283,8 +2362,8 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="171"/>
-        <c:axId val="156889472"/>
-        <c:axId val="156891008"/>
+        <c:axId val="145491456"/>
+        <c:axId val="145492992"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -2318,18 +2397,18 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.45945945945945948</c:v>
+                  <c:v>0.95945945945945943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="229"/>
-        <c:axId val="68101248"/>
-        <c:axId val="156892544"/>
+        <c:axId val="145524992"/>
+        <c:axId val="145523456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156889472"/>
+        <c:axId val="145491456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,14 +2420,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="156891008"/>
+        <c:crossAx val="145492992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156891008"/>
+        <c:axId val="145492992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,12 +2440,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="156889472"/>
+        <c:crossAx val="145491456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156892544"/>
+        <c:axId val="145523456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2382,19 +2461,19 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68101248"/>
+        <c:crossAx val="145524992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="68101248"/>
+        <c:axId val="145524992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="156892544"/>
+        <c:crossAx val="145523456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2422,7 +2501,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2472,8 +2551,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="165929728"/>
-        <c:axId val="165931264"/>
+        <c:axId val="346228608"/>
+        <c:axId val="346230144"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -2507,18 +2586,18 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.45945945945945948</c:v>
+                  <c:v>0.95945945945945943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="208"/>
-        <c:axId val="165934592"/>
-        <c:axId val="165933056"/>
+        <c:axId val="346237568"/>
+        <c:axId val="346236032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165929728"/>
+        <c:axId val="346228608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,14 +2610,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="165931264"/>
+        <c:crossAx val="346230144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165931264"/>
+        <c:axId val="346230144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1100000000000001"/>
@@ -2554,12 +2633,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="165929728"/>
+        <c:crossAx val="346228608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165933056"/>
+        <c:axId val="346236032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2574,19 +2653,19 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="165934592"/>
+        <c:crossAx val="346237568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="165934592"/>
+        <c:axId val="346237568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="165933056"/>
+        <c:crossAx val="346236032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2609,7 +2688,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000577" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000577" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2699,8 +2778,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="175732992"/>
-        <c:axId val="175747072"/>
+        <c:axId val="346381696"/>
+        <c:axId val="346383488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2780,25 +2859,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="175750144"/>
-        <c:axId val="175748608"/>
+        <c:axId val="346390912"/>
+        <c:axId val="346385024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175732992"/>
+        <c:axId val="346381696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175747072"/>
+        <c:crossAx val="346383488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175747072"/>
+        <c:axId val="346383488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,24 +2885,24 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175732992"/>
+        <c:crossAx val="346381696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175748608"/>
+        <c:axId val="346385024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175750144"/>
+        <c:crossAx val="346390912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="175750144"/>
+        <c:axId val="346390912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,7 +2910,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="175748608"/>
+        <c:crossAx val="346385024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2840,14 +2919,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2937,8 +3015,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="185348480"/>
-        <c:axId val="185350016"/>
+        <c:axId val="346420736"/>
+        <c:axId val="346422272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3018,25 +3096,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="185361536"/>
-        <c:axId val="185351552"/>
+        <c:axId val="346577152"/>
+        <c:axId val="346575616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185348480"/>
+        <c:axId val="346420736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185350016"/>
+        <c:crossAx val="346422272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185350016"/>
+        <c:axId val="346422272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,24 +3122,24 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185348480"/>
+        <c:crossAx val="346420736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185351552"/>
+        <c:axId val="346575616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185361536"/>
+        <c:crossAx val="346577152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="185361536"/>
+        <c:axId val="346577152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3069,7 +3147,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="185351552"/>
+        <c:crossAx val="346575616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3078,14 +3156,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000533" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000533" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3180,8 +3257,8 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="177946624"/>
-        <c:axId val="177932544"/>
+        <c:axId val="346608768"/>
+        <c:axId val="346602880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3264,11 +3341,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="177931008"/>
-        <c:axId val="185388032"/>
+        <c:axId val="346601344"/>
+        <c:axId val="346599808"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="185388032"/>
+        <c:axId val="346599808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,12 +3359,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177931008"/>
+        <c:crossAx val="346601344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="177931008"/>
+        <c:axId val="346601344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,14 +3372,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185388032"/>
+        <c:crossAx val="346599808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177932544"/>
+        <c:axId val="346602880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3315,12 +3392,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177946624"/>
+        <c:crossAx val="346608768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="177946624"/>
+        <c:axId val="346608768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,7 +3405,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="177932544"/>
+        <c:crossAx val="346602880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3337,14 +3414,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3950,7 +4026,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>31</a:t>
+              <a:t>10</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4012,7 +4088,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>12</a:t>
+              <a:t>28</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4074,7 +4150,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>3</a:t>
+              <a:t>24</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4136,7 +4212,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>17</a:t>
+              <a:t>2</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4198,7 +4274,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>10</a:t>
+              <a:t>17</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4260,7 +4336,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>8</a:t>
+              <a:t>22</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4322,7 +4398,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>13</a:t>
+              <a:t>12</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4554,7 +4630,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="DDDED5"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5165,28 +5241,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -5212,18 +5288,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="71" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -5307,18 +5383,18 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="71" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -5447,12 +5523,12 @@
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
       <c r="N13" t="s">
         <v>75</v>
       </c>
@@ -5461,16 +5537,16 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
       <c r="N14" t="s">
         <v>78</v>
       </c>
@@ -5491,10 +5567,10 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -5509,10 +5585,10 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8" ht="1.5" customHeight="1">
       <c r="A17" s="5"/>
@@ -5768,10 +5844,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6009,22 +6085,22 @@
       </c>
       <c r="J33" s="31">
         <f ca="1">RAND()</f>
-        <v>8.6200421250675952E-2</v>
+        <v>0.25352775099581959</v>
       </c>
       <c r="L33" s="31">
         <v>1</v>
       </c>
       <c r="M33" s="31" t="str">
         <f ca="1">INDEX(I33:I37,MATCH(SMALL(J33:J37,L33),J33:J37,0))</f>
-        <v>A4</v>
+        <v>A3</v>
       </c>
       <c r="N33">
         <f ca="1">SMALL(J33:J37,L33)</f>
-        <v>5.4834779494333574E-2</v>
+        <v>1.8417870137177772E-2</v>
       </c>
       <c r="O33">
         <f ca="1">MATCH(SMALL(J33:J37,L33),J33:J37,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -6036,14 +6112,14 @@
       </c>
       <c r="J34" s="31">
         <f t="shared" ref="J34:J37" ca="1" si="2">RAND()</f>
-        <v>0.84535731585057161</v>
+        <v>0.85494858294525033</v>
       </c>
       <c r="L34" s="31">
         <v>2</v>
       </c>
       <c r="M34" s="31" t="str">
         <f t="shared" ref="M34:M35" ca="1" si="3">INDEX(I34:I38,MATCH(SMALL(J34:J38,L34),J34:J38,0))</f>
-        <v>A3</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6052,7 +6128,7 @@
       </c>
       <c r="J35" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3519013361052421</v>
+        <v>1.8417870137177772E-2</v>
       </c>
       <c r="L35" s="31">
         <v>3</v>
@@ -6068,7 +6144,7 @@
       </c>
       <c r="J36" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4834779494333574E-2</v>
+        <v>0.16576351497722497</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -6080,7 +6156,7 @@
       </c>
       <c r="J37" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76400639853620333</v>
+        <v>0.23827810916946479</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -6098,7 +6174,7 @@
     <row r="39" spans="1:15">
       <c r="A39" t="str">
         <f ca="1">IF(RAND()&gt;0.5,"男","女")</f>
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="B39" t="s">
         <v>169</v>
@@ -6118,7 +6194,7 @@
     <row r="42" spans="1:15">
       <c r="A42" t="str">
         <f ca="1">TEXT(RAND()*("1943年1月1日"-"2017年1月1日")+"2017年1月1日","e年m月d日")</f>
-        <v>1994年3月21日</v>
+        <v>1982年9月16日</v>
       </c>
       <c r="B42" t="s">
         <v>170</v>
@@ -6886,7 +6962,7 @@
       <c r="D104" s="67">
         <v>1</v>
       </c>
-      <c r="E104" s="70">
+      <c r="E104" s="86">
         <v>88</v>
       </c>
       <c r="F104" s="3"/>
@@ -6901,7 +6977,7 @@
       <c r="D105" s="67">
         <v>2</v>
       </c>
-      <c r="E105" s="70"/>
+      <c r="E105" s="86"/>
       <c r="F105" s="3"/>
       <c r="G105" s="67">
         <v>2</v>
@@ -6915,7 +6991,7 @@
       <c r="D106" s="67">
         <v>3</v>
       </c>
-      <c r="E106" s="70"/>
+      <c r="E106" s="86"/>
       <c r="F106" s="3"/>
       <c r="G106" s="67">
         <v>3</v>
@@ -6929,7 +7005,7 @@
       <c r="D107" s="67">
         <v>4</v>
       </c>
-      <c r="E107" s="70"/>
+      <c r="E107" s="86"/>
       <c r="F107" s="3"/>
       <c r="G107" s="67">
         <v>4</v>
@@ -6973,7 +7049,7 @@
       <c r="D110" s="67">
         <v>7</v>
       </c>
-      <c r="E110" s="70">
+      <c r="E110" s="86">
         <v>101</v>
       </c>
       <c r="F110" s="3"/>
@@ -6988,7 +7064,7 @@
       <c r="D111" s="67">
         <v>8</v>
       </c>
-      <c r="E111" s="70"/>
+      <c r="E111" s="86"/>
       <c r="F111" s="3"/>
       <c r="G111" s="67">
         <v>8</v>
@@ -7131,6 +7207,19 @@
     <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -7209,7 +7298,7 @@
       </c>
       <c r="H2" s="37">
         <f ca="1">IF(B4="女",(77-(YEAR(TODAY())-YEAR(B3)))/77,(74-(YEAR(TODAY())-YEAR(B3)))/74)</f>
-        <v>0.45945945945945948</v>
+        <v>0.95945945945945943</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7218,7 +7307,7 @@
       </c>
       <c r="B3" s="38" t="str">
         <f ca="1">TEXT(RAND()*("1943年1月1日"-"2017年1月1日")+"2017年1月1日","e年m月d日")</f>
-        <v>1979年1月27日</v>
+        <v>2016年8月28日</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7244,7 +7333,7 @@
       </c>
       <c r="G7" t="str">
         <f ca="1">IF(RAND()&gt;0.5,"男","女")</f>
-        <v>女</v>
+        <v>男</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7292,7 +7381,7 @@
       <c r="A14" s="39"/>
       <c r="B14" s="39" t="str">
         <f ca="1">"你的生命能量还剩"&amp;TEXT(H2,"0%")&amp;",且用且珍惜！"</f>
-        <v>你的生命能量还剩46%,且用且珍惜！</v>
+        <v>你的生命能量还剩96%,且用且珍惜！</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -7480,31 +7569,31 @@
       </c>
       <c r="F3" s="41">
         <f t="shared" ref="F3:K3" ca="1" si="0">VLOOKUP(F$2,$B$5:$C$37,2,0)</f>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L3" s="41">
         <f ca="1">VLOOKUP(L$2,$B$39:$C$53,2,0)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1">
@@ -7521,11 +7610,11 @@
     <row r="5" spans="1:12">
       <c r="A5" s="41">
         <f t="shared" ref="A5:A37" ca="1" si="1">RAND()</f>
-        <v>0.46023237293903119</v>
+        <v>0.29900492353696961</v>
       </c>
       <c r="B5" s="41">
         <f t="shared" ref="B5:B37" ca="1" si="2">RANK(A5,$A$5:$A$37)+COUNTIF($A$5:$A$37,A5)-1</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5" s="41">
         <v>1</v>
@@ -7534,11 +7623,11 @@
     <row r="6" spans="1:12">
       <c r="A6" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7305758449338633E-2</v>
+        <v>0.98638416628495085</v>
       </c>
       <c r="B6" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C6" s="41">
         <v>2</v>
@@ -7547,11 +7636,11 @@
     <row r="7" spans="1:12">
       <c r="A7" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89435608295627667</v>
+        <v>0.74324900808771233</v>
       </c>
       <c r="B7" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" s="41">
         <v>3</v>
@@ -7578,48 +7667,48 @@
     <row r="8" spans="1:12">
       <c r="A8" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83498723551016352</v>
+        <v>0.27874875275215061</v>
       </c>
       <c r="B8" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C8" s="41">
         <v>4</v>
       </c>
       <c r="F8">
         <f ca="1">LARGE($F$3:$K$3,F7)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:K8" ca="1" si="3">LARGE($F$3:$K$3,G7)</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14148807945400588</v>
+        <v>0.82341389920940733</v>
       </c>
       <c r="B9" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C9" s="41">
         <v>5</v>
@@ -7646,11 +7735,11 @@
     <row r="10" spans="1:12">
       <c r="A10" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86234425722005015</v>
+        <v>0.17643677318673534</v>
       </c>
       <c r="B10" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C10" s="41">
         <v>6</v>
@@ -7677,11 +7766,11 @@
     <row r="11" spans="1:12">
       <c r="A11" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3320819107007722</v>
+        <v>0.242537350885768</v>
       </c>
       <c r="B11" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" s="41">
         <v>7</v>
@@ -7708,11 +7797,11 @@
     <row r="12" spans="1:12">
       <c r="A12" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86248744567006508</v>
+        <v>9.2623401100698333E-2</v>
       </c>
       <c r="B12" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C12" s="41">
         <v>8</v>
@@ -7739,11 +7828,11 @@
     <row r="13" spans="1:12">
       <c r="A13" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58213461371076569</v>
+        <v>0.64082039628674781</v>
       </c>
       <c r="B13" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" s="41">
         <v>9</v>
@@ -7770,11 +7859,11 @@
     <row r="14" spans="1:12">
       <c r="A14" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86452468915792924</v>
+        <v>0.99973620837713595</v>
       </c>
       <c r="B14" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="41">
         <v>10</v>
@@ -7801,11 +7890,11 @@
     <row r="15" spans="1:12">
       <c r="A15" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8464995924805514</v>
+        <v>0.69613896218675642</v>
       </c>
       <c r="B15" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C15" s="41">
         <v>11</v>
@@ -7832,11 +7921,11 @@
     <row r="16" spans="1:12">
       <c r="A16" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92328626286881299</v>
+        <v>0.35269591196180361</v>
       </c>
       <c r="B16" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C16" s="41">
         <v>12</v>
@@ -7863,11 +7952,11 @@
     <row r="17" spans="1:11">
       <c r="A17" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12516212220507428</v>
+        <v>0.69046942815090628</v>
       </c>
       <c r="B17" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C17" s="41">
         <v>13</v>
@@ -7894,11 +7983,11 @@
     <row r="18" spans="1:11">
       <c r="A18" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6074226417095066E-2</v>
+        <v>0.86535162956890299</v>
       </c>
       <c r="B18" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C18" s="41">
         <v>14</v>
@@ -7925,11 +8014,11 @@
     <row r="19" spans="1:11">
       <c r="A19" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8583459762044412</v>
+        <v>0.61297264448131816</v>
       </c>
       <c r="B19" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C19" s="41">
         <v>15</v>
@@ -7956,11 +8045,11 @@
     <row r="20" spans="1:11">
       <c r="A20" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79040771761818585</v>
+        <v>6.5090102585074305E-2</v>
       </c>
       <c r="B20" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C20" s="41">
         <v>16</v>
@@ -7987,11 +8076,11 @@
     <row r="21" spans="1:11">
       <c r="A21" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89079103033293427</v>
+        <v>0.98394474734705906</v>
       </c>
       <c r="B21" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="41">
         <v>17</v>
@@ -8018,11 +8107,11 @@
     <row r="22" spans="1:11">
       <c r="A22" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11034563313273438</v>
+        <v>0.1804342141312949</v>
       </c>
       <c r="B22" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="41">
         <v>18</v>
@@ -8049,11 +8138,11 @@
     <row r="23" spans="1:11">
       <c r="A23" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5058214101447529</v>
+        <v>0.75986719786601764</v>
       </c>
       <c r="B23" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" s="41">
         <v>19</v>
@@ -8080,11 +8169,11 @@
     <row r="24" spans="1:11">
       <c r="A24" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44117909884467199</v>
+        <v>0.87795119660772336</v>
       </c>
       <c r="B24" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C24" s="41">
         <v>20</v>
@@ -8093,11 +8182,11 @@
     <row r="25" spans="1:11">
       <c r="A25" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56092115076548676</v>
+        <v>0.81729939883914504</v>
       </c>
       <c r="B25" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="41">
         <v>21</v>
@@ -8106,11 +8195,11 @@
     <row r="26" spans="1:11">
       <c r="A26" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43882606490590881</v>
+        <v>0.96950379856389479</v>
       </c>
       <c r="B26" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C26" s="41">
         <v>22</v>
@@ -8119,11 +8208,11 @@
     <row r="27" spans="1:11">
       <c r="A27" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38244289418128941</v>
+        <v>0.14782732333518767</v>
       </c>
       <c r="B27" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C27" s="41">
         <v>23</v>
@@ -8132,11 +8221,11 @@
     <row r="28" spans="1:11">
       <c r="A28" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0657723742568486E-2</v>
+        <v>0.99137232161428668</v>
       </c>
       <c r="B28" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C28" s="41">
         <v>24</v>
@@ -8145,11 +8234,11 @@
     <row r="29" spans="1:11">
       <c r="A29" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8102412652609472</v>
+        <v>7.6358171848967205E-2</v>
       </c>
       <c r="B29" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C29" s="41">
         <v>25</v>
@@ -8158,11 +8247,11 @@
     <row r="30" spans="1:11">
       <c r="A30" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8039679276089089E-2</v>
+        <v>0.81753255114762302</v>
       </c>
       <c r="B30" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C30" s="41">
         <v>26</v>
@@ -8171,11 +8260,11 @@
     <row r="31" spans="1:11">
       <c r="A31" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17570374349950679</v>
+        <v>0.83807046852437539</v>
       </c>
       <c r="B31" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C31" s="41">
         <v>27</v>
@@ -8184,11 +8273,11 @@
     <row r="32" spans="1:11">
       <c r="A32" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14550812093103449</v>
+        <v>0.9932692242023875</v>
       </c>
       <c r="B32" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C32" s="41">
         <v>28</v>
@@ -8197,11 +8286,11 @@
     <row r="33" spans="1:3">
       <c r="A33" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38556490030790513</v>
+        <v>0.4207056090226966</v>
       </c>
       <c r="B33" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="41">
         <v>29</v>
@@ -8210,11 +8299,11 @@
     <row r="34" spans="1:3">
       <c r="A34" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46646019214928014</v>
+        <v>0.38770727515915726</v>
       </c>
       <c r="B34" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C34" s="41">
         <v>30</v>
@@ -8223,11 +8312,11 @@
     <row r="35" spans="1:3">
       <c r="A35" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98898265888080239</v>
+        <v>0.30670349525939633</v>
       </c>
       <c r="B35" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C35" s="41">
         <v>31</v>
@@ -8236,11 +8325,11 @@
     <row r="36" spans="1:3">
       <c r="A36" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5081326365279013</v>
+        <v>0.3992929785130801</v>
       </c>
       <c r="B36" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C36" s="41">
         <v>32</v>
@@ -8249,11 +8338,11 @@
     <row r="37" spans="1:3">
       <c r="A37" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18307721135763799</v>
+        <v>0.8953144822452086</v>
       </c>
       <c r="B37" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C37" s="41">
         <v>33</v>
@@ -8273,11 +8362,11 @@
     <row r="39" spans="1:3">
       <c r="A39" s="41">
         <f t="shared" ref="A39:A53" ca="1" si="4">RAND()</f>
-        <v>0.22622743050136407</v>
+        <v>0.85066085742800812</v>
       </c>
       <c r="B39" s="41">
         <f ca="1">RANK(A39,$A$39:$A$53)+COUNTIF($A$39:$A$53,A39)-1</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C39" s="41">
         <v>1</v>
@@ -8286,11 +8375,11 @@
     <row r="40" spans="1:3">
       <c r="A40" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7244422381915987</v>
+        <v>0.44562864892299814</v>
       </c>
       <c r="B40" s="41">
         <f t="shared" ref="B40:B53" ca="1" si="5">RANK(A40,$A$39:$A$53)+COUNTIF($A$39:$A$53,A40)-1</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" s="41">
         <v>2</v>
@@ -8299,11 +8388,11 @@
     <row r="41" spans="1:3">
       <c r="A41" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34331453053957794</v>
+        <v>0.67280666087543306</v>
       </c>
       <c r="B41" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C41" s="41">
         <v>3</v>
@@ -8312,11 +8401,11 @@
     <row r="42" spans="1:3">
       <c r="A42" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0628107022828068E-2</v>
+        <v>0.84754473921954809</v>
       </c>
       <c r="B42" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C42" s="41">
         <v>4</v>
@@ -8325,11 +8414,11 @@
     <row r="43" spans="1:3">
       <c r="A43" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7871058505237587</v>
+        <v>0.38072575424507349</v>
       </c>
       <c r="B43" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C43" s="41">
         <v>5</v>
@@ -8338,11 +8427,11 @@
     <row r="44" spans="1:3">
       <c r="A44" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96031109480349608</v>
+        <v>0.31145302885755211</v>
       </c>
       <c r="B44" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C44" s="41">
         <v>6</v>
@@ -8351,7 +8440,7 @@
     <row r="45" spans="1:3">
       <c r="A45" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66269227200793379</v>
+        <v>0.47939303560851787</v>
       </c>
       <c r="B45" s="41">
         <f t="shared" ca="1" si="5"/>
@@ -8364,11 +8453,11 @@
     <row r="46" spans="1:3">
       <c r="A46" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45179025362816905</v>
+        <v>0.45563081922416471</v>
       </c>
       <c r="B46" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="41">
         <v>8</v>
@@ -8377,11 +8466,11 @@
     <row r="47" spans="1:3">
       <c r="A47" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73135144213323855</v>
+        <v>5.2373077551151503E-2</v>
       </c>
       <c r="B47" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C47" s="41">
         <v>9</v>
@@ -8390,11 +8479,11 @@
     <row r="48" spans="1:3">
       <c r="A48" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39910394943357641</v>
+        <v>0.20759978407318358</v>
       </c>
       <c r="B48" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" s="41">
         <v>10</v>
@@ -8403,11 +8492,11 @@
     <row r="49" spans="1:3">
       <c r="A49" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0464869474712097E-2</v>
+        <v>0.51994627218997636</v>
       </c>
       <c r="B49" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C49" s="41">
         <v>11</v>
@@ -8416,11 +8505,11 @@
     <row r="50" spans="1:3">
       <c r="A50" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56853803430233896</v>
+        <v>0.96048428769893279</v>
       </c>
       <c r="B50" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C50" s="41">
         <v>12</v>
@@ -8429,11 +8518,11 @@
     <row r="51" spans="1:3">
       <c r="A51" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96190535496489038</v>
+        <v>5.3998501637676277E-2</v>
       </c>
       <c r="B51" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C51" s="41">
         <v>13</v>
@@ -8442,11 +8531,11 @@
     <row r="52" spans="1:3">
       <c r="A52" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55378513295943765</v>
+        <v>0.43768377455112212</v>
       </c>
       <c r="B52" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="41">
         <v>14</v>
@@ -8455,11 +8544,11 @@
     <row r="53" spans="1:3">
       <c r="A53" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43085262618828679</v>
+        <v>8.1130615242524629E-2</v>
       </c>
       <c r="B53" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C53" s="41">
         <v>15</v>

--- a/public/excel/excel学习20190404.xlsx
+++ b/public/excel/excel学习20190404.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="313">
   <si>
     <t>2017年零部件合格品记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1308,6 +1308,38 @@
   </si>
   <si>
     <t>PHONETIC函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年假天数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今年已过：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天日期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jingyan.baidu.com/article/b0b63dbfd284824a483070fa.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏函数DATEDIF函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算日期差：DATEDIF(开始日期,结束日期,第三参数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三参数：d(天数差)、m(月数差)、y(年数差)、md(日差)、ym(月差)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1462,7 +1494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1532,6 +1564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,7 +1738,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1965,6 +2003,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2250,25 +2300,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="113867008"/>
-        <c:axId val="129236352"/>
+        <c:axId val="243115520"/>
+        <c:axId val="243117440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113867008"/>
+        <c:axId val="243115520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129236352"/>
+        <c:crossAx val="243117440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129236352"/>
+        <c:axId val="243117440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2327,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113867008"/>
+        <c:crossAx val="243115520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2311,7 +2361,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000699" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000699" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000711" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000711" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2362,8 +2412,8 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="171"/>
-        <c:axId val="145491456"/>
-        <c:axId val="145492992"/>
+        <c:axId val="192897024"/>
+        <c:axId val="192898560"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -2397,18 +2447,18 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.95945945945945943</c:v>
+                  <c:v>0.61038961038961037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="229"/>
-        <c:axId val="145524992"/>
-        <c:axId val="145523456"/>
+        <c:axId val="192901888"/>
+        <c:axId val="192900096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145491456"/>
+        <c:axId val="192897024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,14 +2470,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="145492992"/>
+        <c:crossAx val="192898560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145492992"/>
+        <c:axId val="192898560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,12 +2490,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="145491456"/>
+        <c:crossAx val="192897024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145523456"/>
+        <c:axId val="192900096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2461,19 +2511,19 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="145524992"/>
+        <c:crossAx val="192901888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="145524992"/>
+        <c:axId val="192901888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="145523456"/>
+        <c:crossAx val="192900096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2501,7 +2551,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2551,8 +2601,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="346228608"/>
-        <c:axId val="346230144"/>
+        <c:axId val="204697984"/>
+        <c:axId val="204699520"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -2586,18 +2636,18 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.95945945945945943</c:v>
+                  <c:v>0.61038961038961037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="208"/>
-        <c:axId val="346237568"/>
-        <c:axId val="346236032"/>
+        <c:axId val="204702848"/>
+        <c:axId val="204701056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="346228608"/>
+        <c:axId val="204697984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,14 +2660,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="346230144"/>
+        <c:crossAx val="204699520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346230144"/>
+        <c:axId val="204699520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1100000000000001"/>
@@ -2633,12 +2683,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="346228608"/>
+        <c:crossAx val="204697984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346236032"/>
+        <c:axId val="204701056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2653,19 +2703,19 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="346237568"/>
+        <c:crossAx val="204702848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="346237568"/>
+        <c:axId val="204702848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="346236032"/>
+        <c:crossAx val="204701056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2688,7 +2738,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2778,8 +2828,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="346381696"/>
-        <c:axId val="346383488"/>
+        <c:axId val="206190848"/>
+        <c:axId val="206200832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2859,25 +2909,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="346390912"/>
-        <c:axId val="346385024"/>
+        <c:axId val="206203904"/>
+        <c:axId val="206202368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346381696"/>
+        <c:axId val="206190848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346383488"/>
+        <c:crossAx val="206200832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346383488"/>
+        <c:axId val="206200832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2885,24 +2935,24 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346381696"/>
+        <c:crossAx val="206190848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346385024"/>
+        <c:axId val="206202368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346390912"/>
+        <c:crossAx val="206203904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="346390912"/>
+        <c:axId val="206203904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,7 +2960,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="346385024"/>
+        <c:crossAx val="206202368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2925,7 +2975,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3015,8 +3065,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="346420736"/>
-        <c:axId val="346422272"/>
+        <c:axId val="206229888"/>
+        <c:axId val="206231424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3096,25 +3146,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="346577152"/>
-        <c:axId val="346575616"/>
+        <c:axId val="206238848"/>
+        <c:axId val="206232960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346420736"/>
+        <c:axId val="206229888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346422272"/>
+        <c:crossAx val="206231424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346422272"/>
+        <c:axId val="206231424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,24 +3172,24 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346420736"/>
+        <c:crossAx val="206229888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346575616"/>
+        <c:axId val="206232960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346577152"/>
+        <c:crossAx val="206238848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="346577152"/>
+        <c:axId val="206238848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3147,7 +3197,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="346575616"/>
+        <c:crossAx val="206232960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3162,7 +3212,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3257,8 +3307,8 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="346608768"/>
-        <c:axId val="346602880"/>
+        <c:axId val="206712832"/>
+        <c:axId val="206711040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3341,11 +3391,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="346601344"/>
-        <c:axId val="346599808"/>
+        <c:axId val="206709504"/>
+        <c:axId val="206482432"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="346599808"/>
+        <c:axId val="206482432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3359,12 +3409,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="346601344"/>
+        <c:crossAx val="206709504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="346601344"/>
+        <c:axId val="206709504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,14 +3422,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346599808"/>
+        <c:crossAx val="206482432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346602880"/>
+        <c:axId val="206711040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,12 +3442,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="346608768"/>
+        <c:crossAx val="206712832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="346608768"/>
+        <c:axId val="206712832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,7 +3455,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="346602880"/>
+        <c:crossAx val="206711040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3420,7 +3470,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4026,7 +4076,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>10</a:t>
+              <a:t>19</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4088,7 +4138,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>28</a:t>
+              <a:t>33</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4150,7 +4200,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>24</a:t>
+              <a:t>31</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4212,7 +4262,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2</a:t>
+              <a:t>25</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4274,7 +4324,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>17</a:t>
+              <a:t>21</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4336,7 +4386,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>22</a:t>
+              <a:t>17</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4398,7 +4448,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>12</a:t>
+              <a:t>8</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -5844,10 +5894,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5858,6 +5908,7 @@
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="21.75" customWidth="1"/>
     <col min="13" max="13" width="9.75" customWidth="1"/>
   </cols>
@@ -6085,22 +6136,22 @@
       </c>
       <c r="J33" s="31">
         <f ca="1">RAND()</f>
-        <v>0.25352775099581959</v>
+        <v>0.50959162599128205</v>
       </c>
       <c r="L33" s="31">
         <v>1</v>
       </c>
       <c r="M33" s="31" t="str">
         <f ca="1">INDEX(I33:I37,MATCH(SMALL(J33:J37,L33),J33:J37,0))</f>
-        <v>A3</v>
+        <v>A5</v>
       </c>
       <c r="N33">
         <f ca="1">SMALL(J33:J37,L33)</f>
-        <v>1.8417870137177772E-2</v>
+        <v>0.26023046063487598</v>
       </c>
       <c r="O33">
         <f ca="1">MATCH(SMALL(J33:J37,L33),J33:J37,0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -6112,14 +6163,14 @@
       </c>
       <c r="J34" s="31">
         <f t="shared" ref="J34:J37" ca="1" si="2">RAND()</f>
-        <v>0.85494858294525033</v>
+        <v>0.63193961875445503</v>
       </c>
       <c r="L34" s="31">
         <v>2</v>
       </c>
       <c r="M34" s="31" t="str">
         <f t="shared" ref="M34:M35" ca="1" si="3">INDEX(I34:I38,MATCH(SMALL(J34:J38,L34),J34:J38,0))</f>
-        <v>A4</v>
+        <v>A3</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6128,14 +6179,14 @@
       </c>
       <c r="J35" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8417870137177772E-2</v>
+        <v>0.26684616320665233</v>
       </c>
       <c r="L35" s="31">
         <v>3</v>
       </c>
       <c r="M35" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A5</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -6144,7 +6195,7 @@
       </c>
       <c r="J36" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16576351497722497</v>
+        <v>0.53161973735704482</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -6156,13 +6207,13 @@
       </c>
       <c r="J37" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23827810916946479</v>
+        <v>0.26023046063487598</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),"男","女")</f>
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="B38" t="s">
         <v>168</v>
@@ -6174,7 +6225,7 @@
     <row r="39" spans="1:15">
       <c r="A39" t="str">
         <f ca="1">IF(RAND()&gt;0.5,"男","女")</f>
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="B39" t="s">
         <v>169</v>
@@ -6194,7 +6245,7 @@
     <row r="42" spans="1:15">
       <c r="A42" t="str">
         <f ca="1">TEXT(RAND()*("1943年1月1日"-"2017年1月1日")+"2017年1月1日","e年m月d日")</f>
-        <v>1982年9月16日</v>
+        <v>1944年6月8日</v>
       </c>
       <c r="B42" t="s">
         <v>170</v>
@@ -7152,42 +7203,42 @@
         <v>283</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:11">
       <c r="B129" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:11">
       <c r="B130" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:11">
       <c r="B131" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:11">
       <c r="B132" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:11">
       <c r="B133" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:11">
       <c r="B134" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:11">
       <c r="B135" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:11">
       <c r="A136" s="27" t="s">
         <v>297</v>
       </c>
@@ -7199,17 +7250,17 @@
       <c r="E136" s="27"/>
       <c r="F136" s="27"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:11">
       <c r="A140" s="27" t="s">
         <v>303</v>
       </c>
@@ -7217,9 +7268,61 @@
         <v>302</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="91" t="s">
+        <v>305</v>
+      </c>
+      <c r="B144" s="88">
+        <f ca="1">10/365*DATEDIF("2020/1/1",TODAY(),"d")</f>
+        <v>1.8904109589041096</v>
+      </c>
+      <c r="C144" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D144" t="s">
+        <v>307</v>
+      </c>
+      <c r="E144" s="89">
+        <f ca="1">H144-K144</f>
+        <v>69</v>
+      </c>
+      <c r="F144" t="s">
+        <v>306</v>
+      </c>
+      <c r="G144" t="s">
+        <v>308</v>
+      </c>
+      <c r="H144" s="90">
+        <f ca="1">TODAY()</f>
+        <v>43900</v>
+      </c>
+      <c r="K144" s="52">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>310</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7264,9 +7367,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J74" r:id="rId1"/>
+    <hyperlink ref="B145" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7298,7 +7402,7 @@
       </c>
       <c r="H2" s="37">
         <f ca="1">IF(B4="女",(77-(YEAR(TODAY())-YEAR(B3)))/77,(74-(YEAR(TODAY())-YEAR(B3)))/74)</f>
-        <v>0.95945945945945943</v>
+        <v>0.61038961038961037</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7307,7 +7411,7 @@
       </c>
       <c r="B3" s="38" t="str">
         <f ca="1">TEXT(RAND()*("1943年1月1日"-"2017年1月1日")+"2017年1月1日","e年m月d日")</f>
-        <v>2016年8月28日</v>
+        <v>1990年9月6日</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7316,7 +7420,7 @@
       </c>
       <c r="B4" s="33" t="str">
         <f ca="1">IF(RAND()&gt;0.5,"男","女")</f>
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="D4" t="s">
         <v>166</v>
@@ -7350,7 +7454,7 @@
       <c r="F10" s="39"/>
       <c r="G10" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),"男","女")</f>
-        <v>女</v>
+        <v>男</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7381,7 +7485,7 @@
       <c r="A14" s="39"/>
       <c r="B14" s="39" t="str">
         <f ca="1">"你的生命能量还剩"&amp;TEXT(H2,"0%")&amp;",且用且珍惜！"</f>
-        <v>你的生命能量还剩96%,且用且珍惜！</v>
+        <v>你的生命能量还剩61%,且用且珍惜！</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -7569,31 +7673,31 @@
       </c>
       <c r="F3" s="41">
         <f t="shared" ref="F3:K3" ca="1" si="0">VLOOKUP(F$2,$B$5:$C$37,2,0)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L3" s="41">
         <f ca="1">VLOOKUP(L$2,$B$39:$C$53,2,0)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1">
@@ -7610,11 +7714,11 @@
     <row r="5" spans="1:12">
       <c r="A5" s="41">
         <f t="shared" ref="A5:A37" ca="1" si="1">RAND()</f>
-        <v>0.29900492353696961</v>
+        <v>0.48443012637447058</v>
       </c>
       <c r="B5" s="41">
         <f t="shared" ref="B5:B37" ca="1" si="2">RANK(A5,$A$5:$A$37)+COUNTIF($A$5:$A$37,A5)-1</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C5" s="41">
         <v>1</v>
@@ -7623,11 +7727,11 @@
     <row r="6" spans="1:12">
       <c r="A6" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98638416628495085</v>
+        <v>0.2882987816501863</v>
       </c>
       <c r="B6" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C6" s="41">
         <v>2</v>
@@ -7636,11 +7740,11 @@
     <row r="7" spans="1:12">
       <c r="A7" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74324900808771233</v>
+        <v>0.3750608705138827</v>
       </c>
       <c r="B7" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="41">
         <v>3</v>
@@ -7667,48 +7771,48 @@
     <row r="8" spans="1:12">
       <c r="A8" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27874875275215061</v>
+        <v>0.26118015347045076</v>
       </c>
       <c r="B8" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="41">
         <v>4</v>
       </c>
       <c r="F8">
         <f ca="1">LARGE($F$3:$K$3,F7)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:K8" ca="1" si="3">LARGE($F$3:$K$3,G7)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82341389920940733</v>
+        <v>9.3592733980903731E-2</v>
       </c>
       <c r="B9" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C9" s="41">
         <v>5</v>
@@ -7735,11 +7839,11 @@
     <row r="10" spans="1:12">
       <c r="A10" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17643677318673534</v>
+        <v>0.20341945691534402</v>
       </c>
       <c r="B10" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="41">
         <v>6</v>
@@ -7766,11 +7870,11 @@
     <row r="11" spans="1:12">
       <c r="A11" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.242537350885768</v>
+        <v>0.11698441855666974</v>
       </c>
       <c r="B11" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="41">
         <v>7</v>
@@ -7797,11 +7901,11 @@
     <row r="12" spans="1:12">
       <c r="A12" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2623401100698333E-2</v>
+        <v>0.2873508185563507</v>
       </c>
       <c r="B12" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C12" s="41">
         <v>8</v>
@@ -7828,11 +7932,11 @@
     <row r="13" spans="1:12">
       <c r="A13" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64082039628674781</v>
+        <v>7.2996198905031839E-2</v>
       </c>
       <c r="B13" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C13" s="41">
         <v>9</v>
@@ -7859,11 +7963,11 @@
     <row r="14" spans="1:12">
       <c r="A14" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99973620837713595</v>
+        <v>0.64618219424792245</v>
       </c>
       <c r="B14" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C14" s="41">
         <v>10</v>
@@ -7890,11 +7994,11 @@
     <row r="15" spans="1:12">
       <c r="A15" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69613896218675642</v>
+        <v>2.3069932799364423E-3</v>
       </c>
       <c r="B15" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C15" s="41">
         <v>11</v>
@@ -7921,11 +8025,11 @@
     <row r="16" spans="1:12">
       <c r="A16" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35269591196180361</v>
+        <v>0.77331591057538596</v>
       </c>
       <c r="B16" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C16" s="41">
         <v>12</v>
@@ -7952,7 +8056,7 @@
     <row r="17" spans="1:11">
       <c r="A17" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69046942815090628</v>
+        <v>0.46282413548853207</v>
       </c>
       <c r="B17" s="41">
         <f t="shared" ca="1" si="2"/>
@@ -7983,11 +8087,11 @@
     <row r="18" spans="1:11">
       <c r="A18" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86535162956890299</v>
+        <v>0.51445138765361875</v>
       </c>
       <c r="B18" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C18" s="41">
         <v>14</v>
@@ -8014,11 +8118,11 @@
     <row r="19" spans="1:11">
       <c r="A19" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61297264448131816</v>
+        <v>0.52836909344041594</v>
       </c>
       <c r="B19" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C19" s="41">
         <v>15</v>
@@ -8045,11 +8149,11 @@
     <row r="20" spans="1:11">
       <c r="A20" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5090102585074305E-2</v>
+        <v>0.47548277163831631</v>
       </c>
       <c r="B20" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C20" s="41">
         <v>16</v>
@@ -8076,11 +8180,11 @@
     <row r="21" spans="1:11">
       <c r="A21" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98394474734705906</v>
+        <v>0.77864789138026858</v>
       </c>
       <c r="B21" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="41">
         <v>17</v>
@@ -8107,11 +8211,11 @@
     <row r="22" spans="1:11">
       <c r="A22" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1804342141312949</v>
+        <v>0.17542347509487333</v>
       </c>
       <c r="B22" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="41">
         <v>18</v>
@@ -8138,11 +8242,11 @@
     <row r="23" spans="1:11">
       <c r="A23" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75986719786601764</v>
+        <v>0.99743293299527025</v>
       </c>
       <c r="B23" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C23" s="41">
         <v>19</v>
@@ -8169,11 +8273,11 @@
     <row r="24" spans="1:11">
       <c r="A24" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87795119660772336</v>
+        <v>0.29701574967848821</v>
       </c>
       <c r="B24" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C24" s="41">
         <v>20</v>
@@ -8182,11 +8286,11 @@
     <row r="25" spans="1:11">
       <c r="A25" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81729939883914504</v>
+        <v>0.84206214053371031</v>
       </c>
       <c r="B25" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C25" s="41">
         <v>21</v>
@@ -8195,11 +8299,11 @@
     <row r="26" spans="1:11">
       <c r="A26" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96950379856389479</v>
+        <v>0.71249079311708297</v>
       </c>
       <c r="B26" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" s="41">
         <v>22</v>
@@ -8208,11 +8312,11 @@
     <row r="27" spans="1:11">
       <c r="A27" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14782732333518767</v>
+        <v>0.29591758622139874</v>
       </c>
       <c r="B27" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C27" s="41">
         <v>23</v>
@@ -8221,11 +8325,11 @@
     <row r="28" spans="1:11">
       <c r="A28" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99137232161428668</v>
+        <v>0.39635210100263851</v>
       </c>
       <c r="B28" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C28" s="41">
         <v>24</v>
@@ -8234,11 +8338,11 @@
     <row r="29" spans="1:11">
       <c r="A29" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6358171848967205E-2</v>
+        <v>0.87629806213176331</v>
       </c>
       <c r="B29" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C29" s="41">
         <v>25</v>
@@ -8247,11 +8351,11 @@
     <row r="30" spans="1:11">
       <c r="A30" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81753255114762302</v>
+        <v>3.3292733509545869E-2</v>
       </c>
       <c r="B30" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C30" s="41">
         <v>26</v>
@@ -8260,11 +8364,11 @@
     <row r="31" spans="1:11">
       <c r="A31" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83807046852437539</v>
+        <v>3.3347808472326435E-2</v>
       </c>
       <c r="B31" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C31" s="41">
         <v>27</v>
@@ -8273,11 +8377,11 @@
     <row r="32" spans="1:11">
       <c r="A32" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9932692242023875</v>
+        <v>0.58957292027338704</v>
       </c>
       <c r="B32" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C32" s="41">
         <v>28</v>
@@ -8286,11 +8390,11 @@
     <row r="33" spans="1:3">
       <c r="A33" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4207056090226966</v>
+        <v>0.59276934722965402</v>
       </c>
       <c r="B33" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C33" s="41">
         <v>29</v>
@@ -8299,11 +8403,11 @@
     <row r="34" spans="1:3">
       <c r="A34" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38770727515915726</v>
+        <v>0.65607763351363335</v>
       </c>
       <c r="B34" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C34" s="41">
         <v>30</v>
@@ -8312,11 +8416,11 @@
     <row r="35" spans="1:3">
       <c r="A35" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30670349525939633</v>
+        <v>0.92106476867031351</v>
       </c>
       <c r="B35" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C35" s="41">
         <v>31</v>
@@ -8325,11 +8429,11 @@
     <row r="36" spans="1:3">
       <c r="A36" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3992929785130801</v>
+        <v>0.30623636776951324</v>
       </c>
       <c r="B36" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="41">
         <v>32</v>
@@ -8338,11 +8442,11 @@
     <row r="37" spans="1:3">
       <c r="A37" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8953144822452086</v>
+        <v>0.9544348904008042</v>
       </c>
       <c r="B37" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C37" s="41">
         <v>33</v>
@@ -8362,11 +8466,11 @@
     <row r="39" spans="1:3">
       <c r="A39" s="41">
         <f t="shared" ref="A39:A53" ca="1" si="4">RAND()</f>
-        <v>0.85066085742800812</v>
+        <v>0.51320803926301206</v>
       </c>
       <c r="B39" s="41">
         <f ca="1">RANK(A39,$A$39:$A$53)+COUNTIF($A$39:$A$53,A39)-1</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C39" s="41">
         <v>1</v>
@@ -8375,11 +8479,11 @@
     <row r="40" spans="1:3">
       <c r="A40" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44562864892299814</v>
+        <v>0.34894143345165229</v>
       </c>
       <c r="B40" s="41">
         <f t="shared" ref="B40:B53" ca="1" si="5">RANK(A40,$A$39:$A$53)+COUNTIF($A$39:$A$53,A40)-1</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C40" s="41">
         <v>2</v>
@@ -8388,11 +8492,11 @@
     <row r="41" spans="1:3">
       <c r="A41" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67280666087543306</v>
+        <v>5.4658392464035366E-3</v>
       </c>
       <c r="B41" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C41" s="41">
         <v>3</v>
@@ -8401,11 +8505,11 @@
     <row r="42" spans="1:3">
       <c r="A42" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84754473921954809</v>
+        <v>0.28246814265915421</v>
       </c>
       <c r="B42" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C42" s="41">
         <v>4</v>
@@ -8414,11 +8518,11 @@
     <row r="43" spans="1:3">
       <c r="A43" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38072575424507349</v>
+        <v>0.73236441017185272</v>
       </c>
       <c r="B43" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C43" s="41">
         <v>5</v>
@@ -8427,11 +8531,11 @@
     <row r="44" spans="1:3">
       <c r="A44" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31145302885755211</v>
+        <v>0.61750700598786268</v>
       </c>
       <c r="B44" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C44" s="41">
         <v>6</v>
@@ -8440,11 +8544,11 @@
     <row r="45" spans="1:3">
       <c r="A45" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47939303560851787</v>
+        <v>0.52345885662494118</v>
       </c>
       <c r="B45" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" s="41">
         <v>7</v>
@@ -8453,11 +8557,11 @@
     <row r="46" spans="1:3">
       <c r="A46" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45563081922416471</v>
+        <v>0.80434238794617752</v>
       </c>
       <c r="B46" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C46" s="41">
         <v>8</v>
@@ -8466,11 +8570,11 @@
     <row r="47" spans="1:3">
       <c r="A47" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2373077551151503E-2</v>
+        <v>0.31487927304982621</v>
       </c>
       <c r="B47" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C47" s="41">
         <v>9</v>
@@ -8479,11 +8583,11 @@
     <row r="48" spans="1:3">
       <c r="A48" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20759978407318358</v>
+        <v>0.17082351972813514</v>
       </c>
       <c r="B48" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48" s="41">
         <v>10</v>
@@ -8492,11 +8596,11 @@
     <row r="49" spans="1:3">
       <c r="A49" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51994627218997636</v>
+        <v>0.50150141294558281</v>
       </c>
       <c r="B49" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C49" s="41">
         <v>11</v>
@@ -8505,11 +8609,11 @@
     <row r="50" spans="1:3">
       <c r="A50" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96048428769893279</v>
+        <v>0.6147083807223821</v>
       </c>
       <c r="B50" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C50" s="41">
         <v>12</v>
@@ -8518,11 +8622,11 @@
     <row r="51" spans="1:3">
       <c r="A51" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3998501637676277E-2</v>
+        <v>0.49323738123530503</v>
       </c>
       <c r="B51" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C51" s="41">
         <v>13</v>
@@ -8531,11 +8635,11 @@
     <row r="52" spans="1:3">
       <c r="A52" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43768377455112212</v>
+        <v>0.7493883670081849</v>
       </c>
       <c r="B52" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C52" s="41">
         <v>14</v>
@@ -8544,11 +8648,11 @@
     <row r="53" spans="1:3">
       <c r="A53" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1130615242524629E-2</v>
+        <v>0.71646304105421077</v>
       </c>
       <c r="B53" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C53" s="41">
         <v>15</v>

--- a/public/excel/excel学习20190404.xlsx
+++ b/public/excel/excel学习20190404.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="314">
   <si>
     <t>2017年零部件合格品记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,6 +1340,10 @@
   </si>
   <si>
     <t>第三参数：d(天数差)、m(月数差)、y(年数差)、md(日差)、ym(月差)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回参数列表中非空值的单元格个数。利用函数 COUNTA 可以计算单元格区域或数组中包含数据的单元格个数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1738,7 +1742,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1949,6 +1953,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2002,18 +2021,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2300,25 +2307,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="243115520"/>
-        <c:axId val="243117440"/>
+        <c:axId val="68184704"/>
+        <c:axId val="68272512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243115520"/>
+        <c:axId val="68184704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243117440"/>
+        <c:crossAx val="68272512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243117440"/>
+        <c:axId val="68272512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2327,7 +2334,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243115520"/>
+        <c:crossAx val="68184704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2361,7 +2368,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000711" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000711" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000722" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000722" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2412,8 +2419,8 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="171"/>
-        <c:axId val="192897024"/>
-        <c:axId val="192898560"/>
+        <c:axId val="68740224"/>
+        <c:axId val="68741760"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -2447,18 +2454,18 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.61038961038961037</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="229"/>
-        <c:axId val="192901888"/>
-        <c:axId val="192900096"/>
+        <c:axId val="69011328"/>
+        <c:axId val="69009792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192897024"/>
+        <c:axId val="68740224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,14 +2477,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192898560"/>
+        <c:crossAx val="68741760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192898560"/>
+        <c:axId val="68741760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,12 +2497,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192897024"/>
+        <c:crossAx val="68740224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192900096"/>
+        <c:axId val="69009792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2511,19 +2518,19 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192901888"/>
+        <c:crossAx val="69011328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="192901888"/>
+        <c:axId val="69011328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="192900096"/>
+        <c:crossAx val="69009792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2551,7 +2558,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000622" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000622" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2601,8 +2608,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="204697984"/>
-        <c:axId val="204699520"/>
+        <c:axId val="71493120"/>
+        <c:axId val="71494656"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="bar"/>
@@ -2636,18 +2643,18 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.61038961038961037</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="208"/>
-        <c:axId val="204702848"/>
-        <c:axId val="204701056"/>
+        <c:axId val="71506176"/>
+        <c:axId val="71504640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204697984"/>
+        <c:axId val="71493120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,14 +2667,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204699520"/>
+        <c:crossAx val="71494656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204699520"/>
+        <c:axId val="71494656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1100000000000001"/>
@@ -2683,12 +2690,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204697984"/>
+        <c:crossAx val="71493120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204701056"/>
+        <c:axId val="71504640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2703,19 +2710,19 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204702848"/>
+        <c:crossAx val="71506176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="204702848"/>
+        <c:axId val="71506176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="204701056"/>
+        <c:crossAx val="71504640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2738,7 +2745,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2828,8 +2835,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="206190848"/>
-        <c:axId val="206200832"/>
+        <c:axId val="72338432"/>
+        <c:axId val="72340224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2909,25 +2916,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="206203904"/>
-        <c:axId val="206202368"/>
+        <c:axId val="72417280"/>
+        <c:axId val="72341760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206190848"/>
+        <c:axId val="72338432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206200832"/>
+        <c:crossAx val="72340224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206200832"/>
+        <c:axId val="72340224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2935,24 +2942,24 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206190848"/>
+        <c:crossAx val="72338432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206202368"/>
+        <c:axId val="72341760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206203904"/>
+        <c:crossAx val="72417280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="206203904"/>
+        <c:axId val="72417280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,7 +2967,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="206202368"/>
+        <c:crossAx val="72341760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2975,7 +2982,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3065,8 +3072,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="206229888"/>
-        <c:axId val="206231424"/>
+        <c:axId val="72451200"/>
+        <c:axId val="72452736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3146,25 +3153,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="206238848"/>
-        <c:axId val="206232960"/>
+        <c:axId val="72468352"/>
+        <c:axId val="72466816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206229888"/>
+        <c:axId val="72451200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206231424"/>
+        <c:crossAx val="72452736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206231424"/>
+        <c:axId val="72452736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,24 +3179,24 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206229888"/>
+        <c:crossAx val="72451200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206232960"/>
+        <c:axId val="72466816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206238848"/>
+        <c:crossAx val="72468352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="206238848"/>
+        <c:axId val="72468352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3204,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="206232960"/>
+        <c:crossAx val="72466816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3212,7 +3219,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3307,8 +3314,8 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="206712832"/>
-        <c:axId val="206711040"/>
+        <c:axId val="72508160"/>
+        <c:axId val="72494080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3391,11 +3398,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="206709504"/>
-        <c:axId val="206482432"/>
+        <c:axId val="72492544"/>
+        <c:axId val="72491008"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="206482432"/>
+        <c:axId val="72491008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3409,12 +3416,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="206709504"/>
+        <c:crossAx val="72492544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="206709504"/>
+        <c:axId val="72492544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3422,14 +3429,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206482432"/>
+        <c:crossAx val="72491008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206711040"/>
+        <c:axId val="72494080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3442,12 +3449,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="206712832"/>
+        <c:crossAx val="72508160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="206712832"/>
+        <c:axId val="72508160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3455,7 +3462,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="206711040"/>
+        <c:crossAx val="72494080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3470,7 +3477,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4076,7 +4083,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>19</a:t>
+              <a:t>3</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4138,7 +4145,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>33</a:t>
+              <a:t>14</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4200,7 +4207,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>31</a:t>
+              <a:t>6</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4324,7 +4331,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>21</a:t>
+              <a:t>1</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4386,7 +4393,7 @@
                 <a:ea typeface="宋体"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>17</a:t>
+              <a:t>20</a:t>
             </a:fld>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
               <a:solidFill>
@@ -4969,14 +4976,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="26.25" customHeight="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="2:18" ht="49.5" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -5291,28 +5298,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -5338,18 +5345,18 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="70" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -5433,18 +5440,18 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="70" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -5573,12 +5580,12 @@
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
       <c r="N13" t="s">
         <v>75</v>
       </c>
@@ -5587,16 +5594,16 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
       <c r="N14" t="s">
         <v>78</v>
       </c>
@@ -5617,10 +5624,10 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -5635,10 +5642,10 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:8" ht="1.5" customHeight="1">
       <c r="A17" s="5"/>
@@ -5894,10 +5901,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O146"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6136,22 +6143,22 @@
       </c>
       <c r="J33" s="31">
         <f ca="1">RAND()</f>
-        <v>0.50959162599128205</v>
+        <v>0.14379562821141167</v>
       </c>
       <c r="L33" s="31">
         <v>1</v>
       </c>
       <c r="M33" s="31" t="str">
         <f ca="1">INDEX(I33:I37,MATCH(SMALL(J33:J37,L33),J33:J37,0))</f>
-        <v>A5</v>
+        <v>A2</v>
       </c>
       <c r="N33">
         <f ca="1">SMALL(J33:J37,L33)</f>
-        <v>0.26023046063487598</v>
+        <v>8.7080687404872847E-2</v>
       </c>
       <c r="O33">
         <f ca="1">MATCH(SMALL(J33:J37,L33),J33:J37,0)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -6163,14 +6170,14 @@
       </c>
       <c r="J34" s="31">
         <f t="shared" ref="J34:J37" ca="1" si="2">RAND()</f>
-        <v>0.63193961875445503</v>
+        <v>8.7080687404872847E-2</v>
       </c>
       <c r="L34" s="31">
         <v>2</v>
       </c>
       <c r="M34" s="31" t="str">
         <f t="shared" ref="M34:M35" ca="1" si="3">INDEX(I34:I38,MATCH(SMALL(J34:J38,L34),J34:J38,0))</f>
-        <v>A3</v>
+        <v>A4</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -6179,14 +6186,14 @@
       </c>
       <c r="J35" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26684616320665233</v>
+        <v>0.89975494928558852</v>
       </c>
       <c r="L35" s="31">
         <v>3</v>
       </c>
       <c r="M35" s="31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>A4</v>
+        <v>A5</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -6195,7 +6202,7 @@
       </c>
       <c r="J36" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53161973735704482</v>
+        <v>0.35281076907280351</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -6207,13 +6214,13 @@
       </c>
       <c r="J37" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26023046063487598</v>
+        <v>0.96200090820016815</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),"男","女")</f>
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="B38" t="s">
         <v>168</v>
@@ -6225,7 +6232,7 @@
     <row r="39" spans="1:15">
       <c r="A39" t="str">
         <f ca="1">IF(RAND()&gt;0.5,"男","女")</f>
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="B39" t="s">
         <v>169</v>
@@ -6245,7 +6252,7 @@
     <row r="42" spans="1:15">
       <c r="A42" t="str">
         <f ca="1">TEXT(RAND()*("1943年1月1日"-"2017年1月1日")+"2017年1月1日","e年m月d日")</f>
-        <v>1944年6月8日</v>
+        <v>1956年8月26日</v>
       </c>
       <c r="B42" t="s">
         <v>170</v>
@@ -7013,7 +7020,7 @@
       <c r="D104" s="67">
         <v>1</v>
       </c>
-      <c r="E104" s="86">
+      <c r="E104" s="91">
         <v>88</v>
       </c>
       <c r="F104" s="3"/>
@@ -7028,7 +7035,7 @@
       <c r="D105" s="67">
         <v>2</v>
       </c>
-      <c r="E105" s="86"/>
+      <c r="E105" s="91"/>
       <c r="F105" s="3"/>
       <c r="G105" s="67">
         <v>2</v>
@@ -7042,7 +7049,7 @@
       <c r="D106" s="67">
         <v>3</v>
       </c>
-      <c r="E106" s="86"/>
+      <c r="E106" s="91"/>
       <c r="F106" s="3"/>
       <c r="G106" s="67">
         <v>3</v>
@@ -7056,7 +7063,7 @@
       <c r="D107" s="67">
         <v>4</v>
       </c>
-      <c r="E107" s="86"/>
+      <c r="E107" s="91"/>
       <c r="F107" s="3"/>
       <c r="G107" s="67">
         <v>4</v>
@@ -7100,7 +7107,7 @@
       <c r="D110" s="67">
         <v>7</v>
       </c>
-      <c r="E110" s="86">
+      <c r="E110" s="91">
         <v>101</v>
       </c>
       <c r="F110" s="3"/>
@@ -7115,7 +7122,7 @@
       <c r="D111" s="67">
         <v>8</v>
       </c>
-      <c r="E111" s="86"/>
+      <c r="E111" s="91"/>
       <c r="F111" s="3"/>
       <c r="G111" s="67">
         <v>8</v>
@@ -7281,12 +7288,12 @@
       <c r="C143" s="27"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="91" t="s">
+      <c r="A144" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="B144" s="88">
+      <c r="B144" s="70">
         <f ca="1">10/365*DATEDIF("2020/1/1",TODAY(),"d")</f>
-        <v>1.8904109589041096</v>
+        <v>4.6575342465753424</v>
       </c>
       <c r="C144" s="52" t="s">
         <v>306</v>
@@ -7294,9 +7301,9 @@
       <c r="D144" t="s">
         <v>307</v>
       </c>
-      <c r="E144" s="89">
+      <c r="E144" s="71">
         <f ca="1">H144-K144</f>
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="F144" t="s">
         <v>306</v>
@@ -7304,15 +7311,15 @@
       <c r="G144" t="s">
         <v>308</v>
       </c>
-      <c r="H144" s="90">
+      <c r="H144" s="72">
         <f ca="1">TODAY()</f>
-        <v>43900</v>
+        <v>44001</v>
       </c>
       <c r="K144" s="52">
         <v>43831</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>310</v>
       </c>
@@ -7320,9 +7327,36 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>312</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="B148" s="27"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="69" t="str">
+        <f>"右边有"&amp;COUNTA(B149:E149)&amp;"个数值"</f>
+        <v>右边有3个数值</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -7402,7 +7436,7 @@
       </c>
       <c r="H2" s="37">
         <f ca="1">IF(B4="女",(77-(YEAR(TODAY())-YEAR(B3)))/77,(74-(YEAR(TODAY())-YEAR(B3)))/74)</f>
-        <v>0.61038961038961037</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7411,7 +7445,7 @@
       </c>
       <c r="B3" s="38" t="str">
         <f ca="1">TEXT(RAND()*("1943年1月1日"-"2017年1月1日")+"2017年1月1日","e年m月d日")</f>
-        <v>1990年9月6日</v>
+        <v>1983年8月13日</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7420,7 +7454,7 @@
       </c>
       <c r="B4" s="33" t="str">
         <f ca="1">IF(RAND()&gt;0.5,"男","女")</f>
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="D4" t="s">
         <v>166</v>
@@ -7485,7 +7519,7 @@
       <c r="A14" s="39"/>
       <c r="B14" s="39" t="str">
         <f ca="1">"你的生命能量还剩"&amp;TEXT(H2,"0%")&amp;",且用且珍惜！"</f>
-        <v>你的生命能量还剩61%,且用且珍惜！</v>
+        <v>你的生命能量还剩50%,且用且珍惜！</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -7629,14 +7663,14 @@
       <c r="E1" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="47" t="s">
         <v>181</v>
       </c>
@@ -7673,15 +7707,15 @@
       </c>
       <c r="F3" s="41">
         <f t="shared" ref="F3:K3" ca="1" si="0">VLOOKUP(F$2,$B$5:$C$37,2,0)</f>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I3" s="41">
         <f t="shared" ca="1" si="0"/>
@@ -7689,11 +7723,11 @@
       </c>
       <c r="J3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K3" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L3" s="41">
         <f ca="1">VLOOKUP(L$2,$B$39:$C$53,2,0)</f>
@@ -7714,11 +7748,11 @@
     <row r="5" spans="1:12">
       <c r="A5" s="41">
         <f t="shared" ref="A5:A37" ca="1" si="1">RAND()</f>
-        <v>0.48443012637447058</v>
+        <v>0.85734239042483651</v>
       </c>
       <c r="B5" s="41">
         <f t="shared" ref="B5:B37" ca="1" si="2">RANK(A5,$A$5:$A$37)+COUNTIF($A$5:$A$37,A5)-1</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" s="41">
         <v>1</v>
@@ -7727,11 +7761,11 @@
     <row r="6" spans="1:12">
       <c r="A6" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2882987816501863</v>
+        <v>0.62600105759490354</v>
       </c>
       <c r="B6" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" s="41">
         <v>2</v>
@@ -7740,11 +7774,11 @@
     <row r="7" spans="1:12">
       <c r="A7" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3750608705138827</v>
+        <v>0.98236062468382079</v>
       </c>
       <c r="B7" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C7" s="41">
         <v>3</v>
@@ -7771,48 +7805,48 @@
     <row r="8" spans="1:12">
       <c r="A8" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26118015347045076</v>
+        <v>0.75322259049759843</v>
       </c>
       <c r="B8" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C8" s="41">
         <v>4</v>
       </c>
       <c r="F8">
         <f ca="1">LARGE($F$3:$K$3,F7)</f>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:K8" ca="1" si="3">LARGE($F$3:$K$3,G7)</f>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3592733980903731E-2</v>
+        <v>0.49851473245532207</v>
       </c>
       <c r="B9" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C9" s="41">
         <v>5</v>
@@ -7839,11 +7873,11 @@
     <row r="10" spans="1:12">
       <c r="A10" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20341945691534402</v>
+        <v>0.93575268726574135</v>
       </c>
       <c r="B10" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C10" s="41">
         <v>6</v>
@@ -7870,7 +7904,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11698441855666974</v>
+        <v>0.13142962566066885</v>
       </c>
       <c r="B11" s="41">
         <f t="shared" ca="1" si="2"/>
@@ -7901,11 +7935,11 @@
     <row r="12" spans="1:12">
       <c r="A12" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2873508185563507</v>
+        <v>0.15697952900274825</v>
       </c>
       <c r="B12" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="41">
         <v>8</v>
@@ -7932,11 +7966,11 @@
     <row r="13" spans="1:12">
       <c r="A13" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2996198905031839E-2</v>
+        <v>0.65684144004453326</v>
       </c>
       <c r="B13" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C13" s="41">
         <v>9</v>
@@ -7963,11 +7997,11 @@
     <row r="14" spans="1:12">
       <c r="A14" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64618219424792245</v>
+        <v>0.57028984193966326</v>
       </c>
       <c r="B14" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" s="41">
         <v>10</v>
@@ -7994,11 +8028,11 @@
     <row r="15" spans="1:12">
       <c r="A15" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3069932799364423E-3</v>
+        <v>0.32167477947513068</v>
       </c>
       <c r="B15" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C15" s="41">
         <v>11</v>
@@ -8025,11 +8059,11 @@
     <row r="16" spans="1:12">
       <c r="A16" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77331591057538596</v>
+        <v>0.24703886787192131</v>
       </c>
       <c r="B16" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C16" s="41">
         <v>12</v>
@@ -8056,11 +8090,11 @@
     <row r="17" spans="1:11">
       <c r="A17" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46282413548853207</v>
+        <v>0.28505176882618777</v>
       </c>
       <c r="B17" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17" s="41">
         <v>13</v>
@@ -8087,11 +8121,11 @@
     <row r="18" spans="1:11">
       <c r="A18" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51445138765361875</v>
+        <v>0.94590398530305153</v>
       </c>
       <c r="B18" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C18" s="41">
         <v>14</v>
@@ -8118,11 +8152,11 @@
     <row r="19" spans="1:11">
       <c r="A19" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52836909344041594</v>
+        <v>0.45001952575299931</v>
       </c>
       <c r="B19" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C19" s="41">
         <v>15</v>
@@ -8149,11 +8183,11 @@
     <row r="20" spans="1:11">
       <c r="A20" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47548277163831631</v>
+        <v>0.7573669610186089</v>
       </c>
       <c r="B20" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C20" s="41">
         <v>16</v>
@@ -8180,11 +8214,11 @@
     <row r="21" spans="1:11">
       <c r="A21" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77864789138026858</v>
+        <v>0.70597095444047842</v>
       </c>
       <c r="B21" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" s="41">
         <v>17</v>
@@ -8211,11 +8245,11 @@
     <row r="22" spans="1:11">
       <c r="A22" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17542347509487333</v>
+        <v>4.4104630785811949E-2</v>
       </c>
       <c r="B22" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C22" s="41">
         <v>18</v>
@@ -8242,11 +8276,11 @@
     <row r="23" spans="1:11">
       <c r="A23" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99743293299527025</v>
+        <v>0.26272617105358975</v>
       </c>
       <c r="B23" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C23" s="41">
         <v>19</v>
@@ -8273,11 +8307,11 @@
     <row r="24" spans="1:11">
       <c r="A24" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29701574967848821</v>
+        <v>0.82452619262513238</v>
       </c>
       <c r="B24" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C24" s="41">
         <v>20</v>
@@ -8286,11 +8320,11 @@
     <row r="25" spans="1:11">
       <c r="A25" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84206214053371031</v>
+        <v>0.64609514429939807</v>
       </c>
       <c r="B25" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C25" s="41">
         <v>21</v>
@@ -8299,11 +8333,11 @@
     <row r="26" spans="1:11">
       <c r="A26" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71249079311708297</v>
+        <v>0.50511209448564576</v>
       </c>
       <c r="B26" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C26" s="41">
         <v>22</v>
@@ -8312,11 +8346,11 @@
     <row r="27" spans="1:11">
       <c r="A27" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29591758622139874</v>
+        <v>0.16341468245339152</v>
       </c>
       <c r="B27" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27" s="41">
         <v>23</v>
@@ -8325,11 +8359,11 @@
     <row r="28" spans="1:11">
       <c r="A28" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39635210100263851</v>
+        <v>0.1449306256884233</v>
       </c>
       <c r="B28" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C28" s="41">
         <v>24</v>
@@ -8338,7 +8372,7 @@
     <row r="29" spans="1:11">
       <c r="A29" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87629806213176331</v>
+        <v>0.92744538167743595</v>
       </c>
       <c r="B29" s="41">
         <f t="shared" ca="1" si="2"/>
@@ -8351,11 +8385,11 @@
     <row r="30" spans="1:11">
       <c r="A30" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3292733509545869E-2</v>
+        <v>8.5864261284589016E-2</v>
       </c>
       <c r="B30" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="41">
         <v>26</v>
@@ -8364,11 +8398,11 @@
     <row r="31" spans="1:11">
       <c r="A31" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3347808472326435E-2</v>
+        <v>0.81536710582772498</v>
       </c>
       <c r="B31" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C31" s="41">
         <v>27</v>
@@ -8377,11 +8411,11 @@
     <row r="32" spans="1:11">
       <c r="A32" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58957292027338704</v>
+        <v>2.9628088588522061E-2</v>
       </c>
       <c r="B32" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C32" s="41">
         <v>28</v>
@@ -8390,11 +8424,11 @@
     <row r="33" spans="1:3">
       <c r="A33" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59276934722965402</v>
+        <v>0.11907254453362781</v>
       </c>
       <c r="B33" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C33" s="41">
         <v>29</v>
@@ -8403,11 +8437,11 @@
     <row r="34" spans="1:3">
       <c r="A34" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65607763351363335</v>
+        <v>0.82053221871854243</v>
       </c>
       <c r="B34" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="41">
         <v>30</v>
@@ -8416,11 +8450,11 @@
     <row r="35" spans="1:3">
       <c r="A35" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92106476867031351</v>
+        <v>0.3651228110443554</v>
       </c>
       <c r="B35" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C35" s="41">
         <v>31</v>
@@ -8429,11 +8463,11 @@
     <row r="36" spans="1:3">
       <c r="A36" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30623636776951324</v>
+        <v>7.8157615079143428E-2</v>
       </c>
       <c r="B36" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C36" s="41">
         <v>32</v>
@@ -8442,11 +8476,11 @@
     <row r="37" spans="1:3">
       <c r="A37" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9544348904008042</v>
+        <v>0.13907461650542352</v>
       </c>
       <c r="B37" s="41">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C37" s="41">
         <v>33</v>
@@ -8466,7 +8500,7 @@
     <row r="39" spans="1:3">
       <c r="A39" s="41">
         <f t="shared" ref="A39:A53" ca="1" si="4">RAND()</f>
-        <v>0.51320803926301206</v>
+        <v>0.27668073433327245</v>
       </c>
       <c r="B39" s="41">
         <f ca="1">RANK(A39,$A$39:$A$53)+COUNTIF($A$39:$A$53,A39)-1</f>
@@ -8479,11 +8513,11 @@
     <row r="40" spans="1:3">
       <c r="A40" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34894143345165229</v>
+        <v>0.18898734347141932</v>
       </c>
       <c r="B40" s="41">
         <f t="shared" ref="B40:B53" ca="1" si="5">RANK(A40,$A$39:$A$53)+COUNTIF($A$39:$A$53,A40)-1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C40" s="41">
         <v>2</v>
@@ -8492,11 +8526,11 @@
     <row r="41" spans="1:3">
       <c r="A41" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4658392464035366E-3</v>
+        <v>0.65373718489707611</v>
       </c>
       <c r="B41" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C41" s="41">
         <v>3</v>
@@ -8505,11 +8539,11 @@
     <row r="42" spans="1:3">
       <c r="A42" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28246814265915421</v>
+        <v>0.38146353793167931</v>
       </c>
       <c r="B42" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C42" s="41">
         <v>4</v>
@@ -8518,11 +8552,11 @@
     <row r="43" spans="1:3">
       <c r="A43" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73236441017185272</v>
+        <v>0.23173272116317678</v>
       </c>
       <c r="B43" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C43" s="41">
         <v>5</v>
@@ -8531,11 +8565,11 @@
     <row r="44" spans="1:3">
       <c r="A44" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61750700598786268</v>
+        <v>0.28019336978922116</v>
       </c>
       <c r="B44" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" s="41">
         <v>6</v>
@@ -8544,11 +8578,11 @@
     <row r="45" spans="1:3">
       <c r="A45" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52345885662494118</v>
+        <v>4.4026058953121616E-2</v>
       </c>
       <c r="B45" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C45" s="41">
         <v>7</v>
@@ -8557,7 +8591,7 @@
     <row r="46" spans="1:3">
       <c r="A46" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80434238794617752</v>
+        <v>0.76091819292326068</v>
       </c>
       <c r="B46" s="41">
         <f t="shared" ca="1" si="5"/>
@@ -8570,11 +8604,11 @@
     <row r="47" spans="1:3">
       <c r="A47" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31487927304982621</v>
+        <v>0.27118061582478381</v>
       </c>
       <c r="B47" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C47" s="41">
         <v>9</v>
@@ -8583,11 +8617,11 @@
     <row r="48" spans="1:3">
       <c r="A48" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17082351972813514</v>
+        <v>0.67988965027554471</v>
       </c>
       <c r="B48" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C48" s="41">
         <v>10</v>
@@ -8596,11 +8630,11 @@
     <row r="49" spans="1:3">
       <c r="A49" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50150141294558281</v>
+        <v>0.20986718866369758</v>
       </c>
       <c r="B49" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C49" s="41">
         <v>11</v>
@@ -8609,7 +8643,7 @@
     <row r="50" spans="1:3">
       <c r="A50" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6147083807223821</v>
+        <v>0.28792946387621399</v>
       </c>
       <c r="B50" s="41">
         <f t="shared" ca="1" si="5"/>
@@ -8622,7 +8656,7 @@
     <row r="51" spans="1:3">
       <c r="A51" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49323738123530503</v>
+        <v>0.250483962269064</v>
       </c>
       <c r="B51" s="41">
         <f t="shared" ca="1" si="5"/>
@@ -8635,11 +8669,11 @@
     <row r="52" spans="1:3">
       <c r="A52" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7493883670081849</v>
+        <v>4.3496830850322077E-2</v>
       </c>
       <c r="B52" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C52" s="41">
         <v>14</v>
@@ -8648,11 +8682,11 @@
     <row r="53" spans="1:3">
       <c r="A53" s="41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71646304105421077</v>
+        <v>0.68348468082922897</v>
       </c>
       <c r="B53" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="41">
         <v>15</v>
